--- a/测试单-电子书_daisy_161211.xlsx
+++ b/测试单-电子书_daisy_161211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="222">
   <si>
     <t>编号</t>
   </si>
@@ -3105,13 +3105,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomRight" activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3196,7 +3197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="80" customFormat="1" ht="40.5">
+    <row r="3" spans="1:19" s="80" customFormat="1" ht="40.5" hidden="1">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -3232,7 +3233,7 @@
       <c r="O3" s="60"/>
       <c r="P3" s="59"/>
     </row>
-    <row r="4" spans="1:19" s="80" customFormat="1" ht="135">
+    <row r="4" spans="1:19" s="80" customFormat="1" ht="135" hidden="1">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -3270,7 +3271,7 @@
       <c r="O4" s="60"/>
       <c r="P4" s="59"/>
     </row>
-    <row r="5" spans="1:19" s="80" customFormat="1" ht="27">
+    <row r="5" spans="1:19" s="80" customFormat="1" ht="27" hidden="1">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -3306,7 +3307,7 @@
       <c r="O5" s="60"/>
       <c r="P5" s="59"/>
     </row>
-    <row r="6" spans="1:19" s="80" customFormat="1" ht="27">
+    <row r="6" spans="1:19" s="80" customFormat="1" ht="27" hidden="1">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -3342,7 +3343,7 @@
       <c r="O6" s="60"/>
       <c r="P6" s="59"/>
     </row>
-    <row r="7" spans="1:19" s="80" customFormat="1" ht="27">
+    <row r="7" spans="1:19" s="80" customFormat="1" ht="27" hidden="1">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -3386,7 +3387,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="80" customFormat="1" ht="40.5">
+    <row r="8" spans="1:19" s="80" customFormat="1" ht="40.5" hidden="1">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -3430,7 +3431,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="80" customFormat="1" ht="54">
+    <row r="9" spans="1:19" s="80" customFormat="1" ht="54" hidden="1">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -3466,7 +3467,7 @@
       <c r="O9" s="60"/>
       <c r="P9" s="59"/>
     </row>
-    <row r="10" spans="1:19" s="81" customFormat="1" ht="40.5">
+    <row r="10" spans="1:19" s="81" customFormat="1" ht="40.5" hidden="1">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -3502,7 +3503,7 @@
       <c r="O10" s="60"/>
       <c r="P10" s="59"/>
     </row>
-    <row r="11" spans="1:19" s="81" customFormat="1">
+    <row r="11" spans="1:19" s="81" customFormat="1" hidden="1">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -3538,7 +3539,7 @@
       <c r="O11" s="60"/>
       <c r="P11" s="59"/>
     </row>
-    <row r="12" spans="1:19" s="68" customFormat="1" ht="40.5">
+    <row r="12" spans="1:19" s="68" customFormat="1" ht="40.5" hidden="1">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -3581,7 +3582,7 @@
       </c>
       <c r="S12" s="83"/>
     </row>
-    <row r="13" spans="1:19" s="81" customFormat="1" ht="27">
+    <row r="13" spans="1:19" s="81" customFormat="1" ht="27" hidden="1">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -3617,7 +3618,7 @@
       <c r="O13" s="60"/>
       <c r="P13" s="59"/>
     </row>
-    <row r="14" spans="1:19" s="81" customFormat="1" ht="40.5">
+    <row r="14" spans="1:19" s="81" customFormat="1" ht="40.5" hidden="1">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -3660,7 +3661,7 @@
       </c>
       <c r="S14" s="84"/>
     </row>
-    <row r="15" spans="1:19" s="68" customFormat="1" ht="27">
+    <row r="15" spans="1:19" s="68" customFormat="1" ht="27" hidden="1">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -3700,7 +3701,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="81" customFormat="1" ht="67.5">
+    <row r="16" spans="1:19" s="81" customFormat="1" ht="67.5" hidden="1">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -3743,7 +3744,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="81" customFormat="1" ht="54">
+    <row r="17" spans="1:16" s="81" customFormat="1" ht="54" hidden="1">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -3784,7 +3785,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="47" customFormat="1" ht="40.5">
+    <row r="18" spans="1:16" s="47" customFormat="1" ht="40.5" hidden="1">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -3827,7 +3828,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="47" customFormat="1" ht="40.5">
+    <row r="19" spans="1:16" s="47" customFormat="1" ht="40.5" hidden="1">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -3870,7 +3871,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="47" customFormat="1" ht="54">
+    <row r="20" spans="1:16" s="47" customFormat="1" ht="54" hidden="1">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="47" customFormat="1" ht="67.5">
+    <row r="21" spans="1:16" s="47" customFormat="1" ht="67.5" hidden="1">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -3954,7 +3955,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="47" customFormat="1" ht="40.5">
+    <row r="22" spans="1:16" s="47" customFormat="1" ht="40.5" hidden="1">
       <c r="A22" s="12">
         <v>20</v>
       </c>
@@ -3997,7 +3998,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="47" customFormat="1" ht="67.5">
+    <row r="23" spans="1:16" s="47" customFormat="1" ht="67.5" hidden="1">
       <c r="A23" s="12">
         <v>21</v>
       </c>
@@ -4040,7 +4041,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="47" customFormat="1">
+    <row r="24" spans="1:16" s="47" customFormat="1" hidden="1">
       <c r="A24" s="12">
         <v>22</v>
       </c>
@@ -4083,7 +4084,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="47" customFormat="1" ht="81">
+    <row r="25" spans="1:16" s="47" customFormat="1" ht="81" hidden="1">
       <c r="A25" s="12">
         <v>23</v>
       </c>
@@ -4124,7 +4125,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="47" customFormat="1" ht="40.5">
+    <row r="26" spans="1:16" s="47" customFormat="1" ht="40.5" hidden="1">
       <c r="A26" s="12">
         <v>24</v>
       </c>
@@ -4165,7 +4166,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="47" customFormat="1" ht="27">
+    <row r="27" spans="1:16" s="47" customFormat="1" ht="27" hidden="1">
       <c r="A27" s="12">
         <v>25</v>
       </c>
@@ -4208,7 +4209,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="47" customFormat="1" ht="54">
+    <row r="28" spans="1:16" s="47" customFormat="1" ht="54" hidden="1">
       <c r="A28" s="12">
         <v>26</v>
       </c>
@@ -4243,7 +4244,7 @@
       <c r="O28" s="60"/>
       <c r="P28" s="59"/>
     </row>
-    <row r="29" spans="1:16" s="47" customFormat="1" ht="81">
+    <row r="29" spans="1:16" s="47" customFormat="1" ht="81" hidden="1">
       <c r="A29" s="12">
         <v>27</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="47" customFormat="1" ht="81">
+    <row r="30" spans="1:16" s="47" customFormat="1" ht="81" hidden="1">
       <c r="A30" s="12">
         <v>28</v>
       </c>
@@ -4317,7 +4318,7 @@
       <c r="O30" s="60"/>
       <c r="P30" s="59"/>
     </row>
-    <row r="31" spans="1:16" s="47" customFormat="1" ht="81">
+    <row r="31" spans="1:16" s="47" customFormat="1" ht="81" hidden="1">
       <c r="A31" s="12">
         <v>29</v>
       </c>
@@ -4378,15 +4379,19 @@
         <v>41</v>
       </c>
       <c r="I32" s="55"/>
-      <c r="L32" s="51"/>
+      <c r="L32" s="51" t="s">
+        <v>85</v>
+      </c>
       <c r="M32" s="57"/>
       <c r="N32" s="57"/>
-      <c r="O32" s="56"/>
+      <c r="O32" s="54">
+        <v>42715</v>
+      </c>
       <c r="P32" s="55" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="47" customFormat="1" ht="94.5">
+    <row r="33" spans="1:19" s="47" customFormat="1" ht="94.5" hidden="1">
       <c r="A33" s="12">
         <v>31</v>
       </c>
@@ -4423,7 +4428,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="47" customFormat="1" ht="81">
+    <row r="34" spans="1:19" s="47" customFormat="1" ht="81" hidden="1">
       <c r="A34" s="12">
         <v>32</v>
       </c>
@@ -4465,7 +4470,7 @@
       </c>
       <c r="S34" s="60"/>
     </row>
-    <row r="35" spans="1:19" s="47" customFormat="1" ht="54">
+    <row r="35" spans="1:19" s="47" customFormat="1" ht="54" hidden="1">
       <c r="A35" s="12">
         <v>33</v>
       </c>
@@ -4507,7 +4512,7 @@
       </c>
       <c r="S35" s="60"/>
     </row>
-    <row r="36" spans="1:19" s="47" customFormat="1" ht="94.5">
+    <row r="36" spans="1:19" s="47" customFormat="1" ht="94.5" hidden="1">
       <c r="A36" s="12">
         <v>34</v>
       </c>
@@ -4615,7 +4620,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="47" customFormat="1">
+    <row r="39" spans="1:19" s="47" customFormat="1" hidden="1">
       <c r="A39" s="12">
         <v>37</v>
       </c>
@@ -4774,7 +4779,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="47" customFormat="1" ht="67.5">
+    <row r="43" spans="1:19" s="47" customFormat="1" ht="67.5" hidden="1">
       <c r="A43" s="12">
         <v>41</v>
       </c>
@@ -4819,7 +4824,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="47" customFormat="1" ht="108">
+    <row r="44" spans="1:19" s="47" customFormat="1" ht="108" hidden="1">
       <c r="A44" s="12">
         <v>42</v>
       </c>
@@ -4864,7 +4869,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="47" customFormat="1" ht="40.5">
+    <row r="45" spans="1:19" s="47" customFormat="1" ht="40.5" hidden="1">
       <c r="A45" s="12">
         <v>43</v>
       </c>
@@ -4907,7 +4912,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="47" customFormat="1" ht="40.5">
+    <row r="46" spans="1:19" s="47" customFormat="1" ht="40.5" hidden="1">
       <c r="A46" s="12">
         <v>44</v>
       </c>
@@ -4948,7 +4953,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="47" customFormat="1" ht="40.5">
+    <row r="47" spans="1:19" s="47" customFormat="1" ht="40.5" hidden="1">
       <c r="A47" s="12">
         <v>45</v>
       </c>
@@ -4989,7 +4994,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="47" customFormat="1" ht="40.5">
+    <row r="48" spans="1:19" s="47" customFormat="1" ht="40.5" hidden="1">
       <c r="A48" s="12">
         <v>46</v>
       </c>
@@ -5032,7 +5037,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="47" customFormat="1">
+    <row r="49" spans="1:16" s="47" customFormat="1" hidden="1">
       <c r="A49" s="12">
         <v>47</v>
       </c>
@@ -5073,7 +5078,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="47" customFormat="1" ht="27">
+    <row r="50" spans="1:16" s="47" customFormat="1" ht="27" hidden="1">
       <c r="A50" s="12">
         <v>48</v>
       </c>
@@ -5195,7 +5200,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="47" customFormat="1" ht="40.5">
+    <row r="53" spans="1:16" s="47" customFormat="1" ht="40.5" hidden="1">
       <c r="A53" s="12">
         <v>51</v>
       </c>
@@ -5274,7 +5279,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="47" customFormat="1">
+    <row r="55" spans="1:16" s="47" customFormat="1" hidden="1">
       <c r="A55" s="12">
         <v>53</v>
       </c>
@@ -5425,7 +5430,7 @@
       <c r="N58" s="96"/>
       <c r="O58" s="97"/>
     </row>
-    <row r="59" spans="1:16" s="89" customFormat="1">
+    <row r="59" spans="1:16" s="89" customFormat="1" hidden="1">
       <c r="A59" s="12">
         <v>57</v>
       </c>
@@ -5740,7 +5745,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:P70">
-    <filterColumn colId="8"/>
+    <filterColumn colId="8">
+      <filters blank="1">
+        <filter val="返回"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/测试单-电子书_daisy_161211.xlsx
+++ b/测试单-电子书_daisy_161211.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550" tabRatio="784" activeTab="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="223">
   <si>
     <t>编号</t>
   </si>
@@ -1519,6 +1519,10 @@
       </rPr>
       <t>。按OK、下或右键才能继续下章。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2083,7 +2087,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2394,6 +2398,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3112,7 +3119,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O37" sqref="O37"/>
+      <selection pane="bottomRight" activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4353,7 +4360,7 @@
       <c r="O31" s="60"/>
       <c r="P31" s="59"/>
     </row>
-    <row r="32" spans="1:16" s="18" customFormat="1" ht="94.5">
+    <row r="32" spans="1:16" s="18" customFormat="1" ht="94.5" hidden="1">
       <c r="A32" s="12">
         <v>30</v>
       </c>
@@ -4663,7 +4670,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="18" customFormat="1" ht="54">
+    <row r="40" spans="1:19" s="18" customFormat="1" ht="54" hidden="1">
       <c r="A40" s="12">
         <v>38</v>
       </c>
@@ -4729,15 +4736,19 @@
         <v>55</v>
       </c>
       <c r="I41" s="55"/>
-      <c r="L41" s="51"/>
+      <c r="L41" s="51" t="s">
+        <v>222</v>
+      </c>
       <c r="M41" s="57"/>
-      <c r="N41" s="57"/>
+      <c r="N41" s="104">
+        <v>42720</v>
+      </c>
       <c r="O41" s="56"/>
       <c r="P41" s="55" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="18" customFormat="1" ht="108">
+    <row r="42" spans="1:19" s="18" customFormat="1" ht="108" hidden="1">
       <c r="A42" s="12">
         <v>40</v>
       </c>
@@ -5120,7 +5131,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="94.5">
+    <row r="51" spans="1:16" ht="94.5" hidden="1">
       <c r="A51" s="12">
         <v>49</v>
       </c>
@@ -5160,7 +5171,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="27">
+    <row r="52" spans="1:16" ht="27" hidden="1">
       <c r="A52" s="12">
         <v>50</v>
       </c>
@@ -5237,7 +5248,7 @@
       <c r="O53" s="60"/>
       <c r="P53" s="59"/>
     </row>
-    <row r="54" spans="1:16" ht="27">
+    <row r="54" spans="1:16" ht="27" hidden="1">
       <c r="A54" s="12">
         <v>52</v>
       </c>
@@ -5322,7 +5333,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="40.5">
+    <row r="56" spans="1:16" ht="40.5" hidden="1">
       <c r="A56" s="12">
         <v>54</v>
       </c>
@@ -5746,11 +5757,15 @@
   </sheetData>
   <autoFilter ref="A2:P70">
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="15"/>
+    <filterColumn colId="15">
+      <filters blank="1">
+        <filter val="j"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">

--- a/测试单-电子书_daisy_161211.xlsx
+++ b/测试单-电子书_daisy_161211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="224">
   <si>
     <t>编号</t>
   </si>
@@ -563,92 +563,6 @@
   <si>
     <t>存储卡
 最近使用文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>路径记忆未实现？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【规格】1.3.3 Daisy 文件播放
-默认从该章节开头开始播放。
-􀂗* 注意，若不是第一次播放该Daisy 文件，则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>直接进入上次退出时的界面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开始播放。而</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从篇章列表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一级一级</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择进入播放。</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1523,6 +1437,14 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2901,7 +2823,7 @@
         <v>42669</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="46" customFormat="1">
@@ -2919,7 +2841,7 @@
         <v>42677</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2936,10 +2858,10 @@
         <v>42695</v>
       </c>
       <c r="F9" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>217</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="53" customFormat="1">
@@ -2956,7 +2878,7 @@
         <v>42713</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G10" s="9"/>
     </row>
@@ -3018,7 +2940,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="F21" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -3026,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -3034,7 +2956,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -3042,7 +2964,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -3055,12 +2977,12 @@
         <v>5</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="F28" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -3070,12 +2992,12 @@
     </row>
     <row r="30" spans="2:6">
       <c r="F30" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="5:6">
       <c r="F34" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="5:6">
@@ -3083,12 +3005,12 @@
         <v>1</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="5:6">
       <c r="F37" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="5:6" ht="67.5">
@@ -3096,7 +3018,7 @@
         <v>40</v>
       </c>
       <c r="F38" s="62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="5:6">
@@ -3116,10 +3038,10 @@
   <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="L57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N61" sqref="N61"/>
+      <selection pane="bottomRight" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3195,10 +3117,10 @@
         <v>9</v>
       </c>
       <c r="N2" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="O2" s="77" t="s">
         <v>156</v>
-      </c>
-      <c r="O2" s="77" t="s">
-        <v>157</v>
       </c>
       <c r="P2" s="78" t="s">
         <v>10</v>
@@ -3391,7 +3313,7 @@
         <v>42666</v>
       </c>
       <c r="P7" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="80" customFormat="1" ht="40.5" hidden="1">
@@ -3435,7 +3357,7 @@
         <v>42666</v>
       </c>
       <c r="P8" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="80" customFormat="1" ht="54" hidden="1">
@@ -3572,7 +3494,7 @@
         <v>59</v>
       </c>
       <c r="I12" s="51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
@@ -3585,7 +3507,7 @@
         <v>42664</v>
       </c>
       <c r="P12" s="51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S12" s="83"/>
     </row>
@@ -3645,11 +3567,11 @@
         <v>31</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H14" s="61"/>
       <c r="I14" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J14" s="47"/>
       <c r="K14" s="60">
@@ -3664,7 +3586,7 @@
         <v>42664</v>
       </c>
       <c r="P14" s="51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S14" s="84"/>
     </row>
@@ -3692,7 +3614,7 @@
       </c>
       <c r="H15" s="52"/>
       <c r="I15" s="51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
@@ -3705,7 +3627,7 @@
         <v>42666</v>
       </c>
       <c r="P15" s="51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="81" customFormat="1" ht="67.5" hidden="1">
@@ -3725,14 +3647,14 @@
         <v>42621</v>
       </c>
       <c r="F16" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="85" t="s">
         <v>175</v>
-      </c>
-      <c r="G16" s="85" t="s">
-        <v>176</v>
       </c>
       <c r="H16" s="86"/>
       <c r="I16" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K16" s="60">
         <v>42677</v>
@@ -3748,7 +3670,7 @@
         <v>42666</v>
       </c>
       <c r="P16" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="81" customFormat="1" ht="54" hidden="1">
@@ -3756,7 +3678,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="59" t="s">
         <v>18</v>
@@ -3771,10 +3693,10 @@
         <v>29</v>
       </c>
       <c r="G17" s="85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K17" s="60">
         <v>42677</v>
@@ -3789,7 +3711,7 @@
         <v>42666</v>
       </c>
       <c r="P17" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="47" customFormat="1" ht="40.5" hidden="1">
@@ -3826,13 +3748,13 @@
       </c>
       <c r="M18" s="61"/>
       <c r="N18" s="61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O18" s="60">
         <v>42666</v>
       </c>
       <c r="P18" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="47" customFormat="1" ht="40.5" hidden="1">
@@ -3869,13 +3791,13 @@
       </c>
       <c r="M19" s="61"/>
       <c r="N19" s="61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O19" s="60">
         <v>42666</v>
       </c>
       <c r="P19" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="47" customFormat="1" ht="54" hidden="1">
@@ -3898,11 +3820,11 @@
         <v>35</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H20" s="61"/>
       <c r="I20" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K20" s="60">
         <v>42677</v>
@@ -3916,7 +3838,7 @@
         <v>42666</v>
       </c>
       <c r="P20" s="51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="47" customFormat="1" ht="67.5" hidden="1">
@@ -3924,10 +3846,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="59" t="s">
         <v>138</v>
-      </c>
-      <c r="C21" s="59" t="s">
-        <v>139</v>
       </c>
       <c r="D21" s="60">
         <v>42616</v>
@@ -3939,11 +3861,11 @@
         <v>26</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H21" s="61"/>
       <c r="I21" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K21" s="60">
         <v>42677</v>
@@ -3953,13 +3875,13 @@
       </c>
       <c r="M21" s="52"/>
       <c r="N21" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O21" s="54">
         <v>42677</v>
       </c>
       <c r="P21" s="51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="47" customFormat="1" ht="40.5" hidden="1">
@@ -3996,13 +3918,13 @@
       </c>
       <c r="M22" s="61"/>
       <c r="N22" s="61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O22" s="60">
         <v>42666</v>
       </c>
       <c r="P22" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="47" customFormat="1" ht="67.5" hidden="1">
@@ -4025,11 +3947,11 @@
         <v>26</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H23" s="61"/>
       <c r="I23" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K23" s="60">
         <v>42677</v>
@@ -4039,13 +3961,13 @@
       </c>
       <c r="M23" s="52"/>
       <c r="N23" s="52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O23" s="54">
         <v>42677</v>
       </c>
       <c r="P23" s="55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="47" customFormat="1" hidden="1">
@@ -4088,7 +4010,7 @@
         <v>42666</v>
       </c>
       <c r="P24" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="47" customFormat="1" ht="81" hidden="1">
@@ -4108,14 +4030,14 @@
         <v>42625</v>
       </c>
       <c r="F25" s="64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H25" s="61"/>
       <c r="I25" s="59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K25" s="60">
         <v>42695</v>
@@ -4129,7 +4051,7 @@
         <v>42691</v>
       </c>
       <c r="P25" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="47" customFormat="1" ht="40.5" hidden="1">
@@ -4170,7 +4092,7 @@
         <v>42666</v>
       </c>
       <c r="P26" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="47" customFormat="1" ht="27" hidden="1">
@@ -4209,11 +4131,11 @@
       </c>
       <c r="M27" s="61"/>
       <c r="N27" s="61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O27" s="60"/>
       <c r="P27" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="47" customFormat="1" ht="54" hidden="1">
@@ -4271,11 +4193,11 @@
         <v>37</v>
       </c>
       <c r="G29" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H29" s="61"/>
       <c r="I29" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K29" s="60">
         <v>42669</v>
@@ -4285,7 +4207,7 @@
       <c r="N29" s="52"/>
       <c r="O29" s="54"/>
       <c r="P29" s="51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="47" customFormat="1" ht="81" hidden="1">
@@ -4360,7 +4282,7 @@
       <c r="O31" s="60"/>
       <c r="P31" s="59"/>
     </row>
-    <row r="32" spans="1:16" s="18" customFormat="1" ht="94.5" hidden="1">
+    <row r="32" spans="1:16" s="18" customFormat="1" ht="94.5">
       <c r="A32" s="12">
         <v>30</v>
       </c>
@@ -4395,7 +4317,7 @@
         <v>42715</v>
       </c>
       <c r="P32" s="55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:19" s="47" customFormat="1" ht="94.5" hidden="1">
@@ -4432,7 +4354,7 @@
       <c r="N33" s="61"/>
       <c r="O33" s="60"/>
       <c r="P33" s="59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:19" s="47" customFormat="1" ht="81" hidden="1">
@@ -4473,7 +4395,7 @@
         <v>42664</v>
       </c>
       <c r="P34" s="59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S34" s="60"/>
     </row>
@@ -4515,7 +4437,7 @@
         <v>42664</v>
       </c>
       <c r="P35" s="59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S35" s="60"/>
     </row>
@@ -4557,7 +4479,7 @@
         <v>42664</v>
       </c>
       <c r="P36" s="59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S36" s="60"/>
     </row>
@@ -4581,7 +4503,7 @@
         <v>117</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H37" s="52"/>
       <c r="I37" s="55"/>
@@ -4590,10 +4512,10 @@
       <c r="N37" s="57"/>
       <c r="O37" s="56"/>
       <c r="P37" s="55" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" s="18" customFormat="1" ht="67.5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="18" customFormat="1">
       <c r="A38" s="12">
         <v>36</v>
       </c>
@@ -4612,9 +4534,7 @@
       <c r="F38" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="43" t="s">
-        <v>118</v>
-      </c>
+      <c r="G38" s="43"/>
       <c r="H38" s="52" t="s">
         <v>55</v>
       </c>
@@ -4624,7 +4544,7 @@
       <c r="N38" s="57"/>
       <c r="O38" s="56"/>
       <c r="P38" s="55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:19" s="47" customFormat="1" hidden="1">
@@ -4644,7 +4564,7 @@
         <v>42641</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G39" s="49" t="s">
         <v>51</v>
@@ -4667,10 +4587,10 @@
         <v>42666</v>
       </c>
       <c r="P39" s="59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" s="18" customFormat="1" ht="54" hidden="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="18" customFormat="1" ht="54">
       <c r="A40" s="12">
         <v>38</v>
       </c>
@@ -4690,13 +4610,13 @@
         <v>52</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H40" s="52" t="s">
         <v>55</v>
       </c>
       <c r="I40" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>85</v>
@@ -4707,7 +4627,7 @@
         <v>42694</v>
       </c>
       <c r="P40" s="55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:19" s="18" customFormat="1" ht="27">
@@ -4730,14 +4650,14 @@
         <v>52</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H41" s="52" t="s">
         <v>55</v>
       </c>
       <c r="I41" s="55"/>
       <c r="L41" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M41" s="57"/>
       <c r="N41" s="104">
@@ -4745,10 +4665,10 @@
       </c>
       <c r="O41" s="56"/>
       <c r="P41" s="55" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" s="18" customFormat="1" ht="108" hidden="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" s="18" customFormat="1" ht="108">
       <c r="A42" s="12">
         <v>40</v>
       </c>
@@ -4765,29 +4685,29 @@
         <v>42641</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G42" s="43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H42" s="52" t="s">
         <v>55</v>
       </c>
       <c r="I42" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L42" s="51" t="s">
         <v>86</v>
       </c>
       <c r="M42" s="57"/>
       <c r="N42" s="57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O42" s="56">
         <v>42691</v>
       </c>
       <c r="P42" s="55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="47" customFormat="1" ht="67.5" hidden="1">
@@ -4810,13 +4730,13 @@
         <v>57</v>
       </c>
       <c r="G43" s="49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H43" s="61" t="s">
         <v>55</v>
       </c>
       <c r="I43" s="59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K43" s="60">
         <v>42695</v>
@@ -4826,13 +4746,13 @@
       </c>
       <c r="M43" s="61"/>
       <c r="N43" s="61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O43" s="60">
         <v>42694</v>
       </c>
       <c r="P43" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:19" s="47" customFormat="1" ht="108" hidden="1">
@@ -4855,13 +4775,13 @@
         <v>57</v>
       </c>
       <c r="G44" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H44" s="61" t="s">
         <v>55</v>
       </c>
       <c r="I44" s="59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K44" s="60">
         <v>42695</v>
@@ -4871,13 +4791,13 @@
       </c>
       <c r="M44" s="61"/>
       <c r="N44" s="61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O44" s="60">
         <v>42694</v>
       </c>
       <c r="P44" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:19" s="47" customFormat="1" ht="40.5" hidden="1">
@@ -4897,16 +4817,16 @@
         <v>42641</v>
       </c>
       <c r="F45" s="64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G45" s="49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H45" s="61" t="s">
         <v>55</v>
       </c>
       <c r="I45" s="59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K45" s="60">
         <v>42695</v>
@@ -4920,7 +4840,7 @@
         <v>42694</v>
       </c>
       <c r="P45" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:19" s="47" customFormat="1" ht="40.5" hidden="1">
@@ -4940,7 +4860,7 @@
         <v>42641</v>
       </c>
       <c r="F46" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G46" s="49" t="s">
         <v>60</v>
@@ -4961,7 +4881,7 @@
         <v>42666</v>
       </c>
       <c r="P46" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:19" s="47" customFormat="1" ht="40.5" hidden="1">
@@ -4981,14 +4901,14 @@
         <v>42641</v>
       </c>
       <c r="F47" s="64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G47" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H47" s="61"/>
       <c r="I47" s="59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K47" s="60">
         <v>42695</v>
@@ -5002,7 +4922,7 @@
         <v>42694</v>
       </c>
       <c r="P47" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:19" s="47" customFormat="1" ht="40.5" hidden="1">
@@ -5022,16 +4942,16 @@
         <v>42641</v>
       </c>
       <c r="F48" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="G48" s="50" t="s">
         <v>207</v>
-      </c>
-      <c r="G48" s="50" t="s">
-        <v>208</v>
       </c>
       <c r="H48" s="61" t="s">
         <v>55</v>
       </c>
       <c r="I48" s="59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K48" s="60">
         <v>42695</v>
@@ -5045,7 +4965,7 @@
         <v>42694</v>
       </c>
       <c r="P48" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:16" s="47" customFormat="1" hidden="1">
@@ -5068,11 +4988,11 @@
         <v>50</v>
       </c>
       <c r="G49" s="50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H49" s="61"/>
       <c r="I49" s="59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K49" s="60">
         <v>42666</v>
@@ -5086,7 +5006,7 @@
         <v>42666</v>
       </c>
       <c r="P49" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:16" s="47" customFormat="1" ht="27" hidden="1">
@@ -5128,10 +5048,10 @@
         <v>42664</v>
       </c>
       <c r="P50" s="59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="94.5" hidden="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="94.5">
       <c r="A51" s="12">
         <v>49</v>
       </c>
@@ -5151,7 +5071,7 @@
         <v>88</v>
       </c>
       <c r="G51" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H51" s="52" t="s">
         <v>41</v>
@@ -5162,16 +5082,16 @@
       </c>
       <c r="M51" s="52"/>
       <c r="N51" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O51" s="54">
         <v>42691</v>
       </c>
       <c r="P51" s="51" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="27" hidden="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="27">
       <c r="A52" s="12">
         <v>50</v>
       </c>
@@ -5191,7 +5111,7 @@
         <v>88</v>
       </c>
       <c r="G52" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H52" s="52" t="s">
         <v>41</v>
@@ -5202,13 +5122,13 @@
       </c>
       <c r="M52" s="52"/>
       <c r="N52" s="57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O52" s="54">
         <v>42691</v>
       </c>
       <c r="P52" s="51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:16" s="47" customFormat="1" ht="40.5" hidden="1">
@@ -5248,7 +5168,7 @@
       <c r="O53" s="60"/>
       <c r="P53" s="59"/>
     </row>
-    <row r="54" spans="1:16" ht="27" hidden="1">
+    <row r="54" spans="1:16" ht="27">
       <c r="A54" s="12">
         <v>52</v>
       </c>
@@ -5268,26 +5188,26 @@
         <v>88</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H54" s="52" t="s">
         <v>41</v>
       </c>
       <c r="I54" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L54" s="12" t="s">
         <v>85</v>
       </c>
       <c r="M54" s="68"/>
       <c r="N54" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O54" s="54">
         <v>42694</v>
       </c>
       <c r="P54" s="51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="47" customFormat="1" hidden="1">
@@ -5310,13 +5230,13 @@
         <v>95</v>
       </c>
       <c r="G55" s="49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H55" s="61" t="s">
         <v>55</v>
       </c>
       <c r="I55" s="59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K55" s="60">
         <v>42695</v>
@@ -5330,10 +5250,10 @@
         <v>42691</v>
       </c>
       <c r="P55" s="59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="40.5" hidden="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="40.5">
       <c r="A56" s="12">
         <v>54</v>
       </c>
@@ -5353,26 +5273,26 @@
         <v>95</v>
       </c>
       <c r="G56" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H56" s="52" t="s">
         <v>41</v>
       </c>
       <c r="I56" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L56" s="51" t="s">
         <v>86</v>
       </c>
       <c r="M56" s="52"/>
       <c r="N56" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="54">
         <v>42694</v>
       </c>
       <c r="P56" s="51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -5392,10 +5312,10 @@
         <v>42669</v>
       </c>
       <c r="F57" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G57" s="17" t="s">
         <v>132</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>133</v>
       </c>
       <c r="H57" s="52" t="s">
         <v>41</v>
@@ -5406,7 +5326,7 @@
       <c r="N57" s="52"/>
       <c r="O57" s="54"/>
       <c r="P57" s="51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:16" s="13" customFormat="1">
@@ -5426,10 +5346,10 @@
         <v>42679</v>
       </c>
       <c r="F58" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="G58" s="94" t="s">
         <v>147</v>
-      </c>
-      <c r="G58" s="94" t="s">
-        <v>148</v>
       </c>
       <c r="H58" s="52" t="s">
         <v>41</v>
@@ -5458,10 +5378,10 @@
         <v>42679</v>
       </c>
       <c r="F59" s="98" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G59" s="85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H59" s="61" t="s">
         <v>55</v>
@@ -5494,10 +5414,10 @@
         <v>42698</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G60" s="66" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H60" s="52" t="s">
         <v>41</v>
@@ -5520,10 +5440,10 @@
         <v>42698</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G61" s="66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H61" s="52" t="s">
         <v>41</v>
@@ -5546,10 +5466,10 @@
         <v>42698</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G62" s="99" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H62" s="52" t="s">
         <v>41</v>
@@ -5572,10 +5492,10 @@
         <v>42698</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G63" s="100" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H63" s="52" t="s">
         <v>41</v>
@@ -5598,16 +5518,16 @@
         <v>42698</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G64" s="100" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H64" s="52" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="27">
+    <row r="65" spans="1:16" ht="27">
       <c r="A65" s="12">
         <v>63</v>
       </c>
@@ -5624,16 +5544,16 @@
         <v>42698</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G65" s="99" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H65" s="52" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="27">
+    <row r="66" spans="1:16" ht="27">
       <c r="A66" s="12">
         <v>64</v>
       </c>
@@ -5650,16 +5570,16 @@
         <v>42698</v>
       </c>
       <c r="F66" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G66" s="100" t="s">
         <v>195</v>
-      </c>
-      <c r="G66" s="100" t="s">
-        <v>196</v>
       </c>
       <c r="H66" s="52" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="27">
+    <row r="67" spans="1:16" ht="27">
       <c r="A67" s="12">
         <v>65</v>
       </c>
@@ -5676,13 +5596,13 @@
         <v>42698</v>
       </c>
       <c r="F67" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G67" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="G67" s="66" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="81">
+    </row>
+    <row r="68" spans="1:16" ht="81">
       <c r="A68" s="12">
         <v>66</v>
       </c>
@@ -5699,13 +5619,13 @@
         <v>42698</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G68" s="101" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="27">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="27">
       <c r="A69" s="12">
         <v>67</v>
       </c>
@@ -5722,13 +5642,22 @@
         <v>42698</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G69" s="66" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="40.5">
+        <v>220</v>
+      </c>
+      <c r="L69" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="O69" s="54">
+        <v>42724</v>
+      </c>
+      <c r="P69" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="40.5">
       <c r="A70" s="12">
         <v>68</v>
       </c>
@@ -5748,7 +5677,7 @@
         <v>88</v>
       </c>
       <c r="G70" s="66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H70" s="52" t="s">
         <v>41</v>
@@ -5757,15 +5686,11 @@
   </sheetData>
   <autoFilter ref="A2:P70">
     <filterColumn colId="8">
-      <filters>
+      <filters blank="1">
         <filter val="返回"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="15">
-      <filters blank="1">
-        <filter val="j"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">

--- a/测试单-电子书_daisy_161211.xlsx
+++ b/测试单-电子书_daisy_161211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="225">
   <si>
     <t>编号</t>
   </si>
@@ -1445,6 +1445,10 @@
   </si>
   <si>
     <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统seek的问题。现在只能多seek一毫秒，以避开这个问题。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2009,7 +2013,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2324,6 +2328,9 @@
     </xf>
     <xf numFmtId="58" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="64">
@@ -2392,7 +2399,12 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3038,10 +3050,10 @@
   <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="L57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="L63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G69" sqref="G69"/>
+      <selection pane="bottomRight" activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5682,11 +5694,23 @@
       <c r="H70" s="52" t="s">
         <v>41</v>
       </c>
+      <c r="L70" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="N70" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="O70" s="54">
+        <v>42724</v>
+      </c>
+      <c r="P70" s="12" t="s">
+        <v>223</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:P70">
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>
@@ -5694,12 +5718,12 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_daisy_161211.xlsx
+++ b/测试单-电子书_daisy_161211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="226">
   <si>
     <t>编号</t>
   </si>
@@ -1449,6 +1449,10 @@
   </si>
   <si>
     <t>系统seek的问题。现在只能多seek一毫秒，以避开这个问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改成和TXT一样，返回时只播放当前页码，不自动播放。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2399,12 +2403,7 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3050,10 +3049,10 @@
   <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="L63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="J57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N70" sqref="N70"/>
+      <selection pane="bottomRight" activeCell="O67" sqref="O67:P67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5613,6 +5612,15 @@
       <c r="G67" s="66" t="s">
         <v>200</v>
       </c>
+      <c r="L67" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="O67" s="54">
+        <v>42724</v>
+      </c>
+      <c r="P67" s="12" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="68" spans="1:16" ht="81">
       <c r="A68" s="12">
@@ -5635,6 +5643,18 @@
       </c>
       <c r="G68" s="101" t="s">
         <v>201</v>
+      </c>
+      <c r="L68" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N68" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="O68" s="54">
+        <v>42724</v>
+      </c>
+      <c r="P68" s="12" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="27">
@@ -5718,12 +5738,12 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_daisy_161211.xlsx
+++ b/测试单-电子书_daisy_161211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="226">
   <si>
     <t>编号</t>
   </si>
@@ -2403,7 +2403,12 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3052,7 +3057,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="J57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O67" sqref="O67:P67"/>
+      <selection pane="bottomRight" activeCell="O66" sqref="O66:P66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5589,6 +5594,15 @@
       <c r="H66" s="52" t="s">
         <v>41</v>
       </c>
+      <c r="L66" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="O66" s="54">
+        <v>42724</v>
+      </c>
+      <c r="P66" s="12" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="67" spans="1:16" ht="27">
       <c r="A67" s="12">
@@ -5738,12 +5752,12 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_daisy_161211.xlsx
+++ b/测试单-电子书_daisy_161211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="223">
   <si>
     <t>编号</t>
   </si>
@@ -838,14 +838,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8版本的文档上写的是左右键切换章节，上下键切换句子。我们理解是在当前章节切换句子，就像页码跳转一样。程序架构也是按照这个设计的，目前要改成可以这个文章切换句子，这个很难办啊。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按【上】键切上一句时，只能在当前章节范围内切，不能跨章。=》按上下键切句应该是全文范围内切换。（【样例】珍爱此生中文）
 【魏】=》1.8版本的文档上写的是左右键切换章节，上下键切换句子。我们理解是在当前章节切换句子，就像页码跳转一样。程序架构也是按照这个设计的，目前要改成可以这个文章切换句子，这个很难办啊。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -860,10 +852,6 @@
   </si>
   <si>
     <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2403,12 +2391,7 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2874,10 +2857,10 @@
         <v>42695</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="53" customFormat="1">
@@ -2894,7 +2877,7 @@
         <v>42713</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G10" s="9"/>
     </row>
@@ -3026,7 +3009,7 @@
     </row>
     <row r="37" spans="5:6">
       <c r="F37" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="5:6" ht="67.5">
@@ -3034,7 +3017,7 @@
         <v>40</v>
       </c>
       <c r="F38" s="62" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="5:6">
@@ -3054,10 +3037,10 @@
   <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="J57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O66" sqref="O66:P66"/>
+      <selection pane="bottomRight" activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4298,7 +4281,7 @@
       <c r="O31" s="60"/>
       <c r="P31" s="59"/>
     </row>
-    <row r="32" spans="1:16" s="18" customFormat="1" ht="94.5">
+    <row r="32" spans="1:16" s="18" customFormat="1" ht="94.5" hidden="1">
       <c r="A32" s="12">
         <v>30</v>
       </c>
@@ -4606,7 +4589,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="18" customFormat="1" ht="54">
+    <row r="40" spans="1:19" s="18" customFormat="1" ht="54" hidden="1">
       <c r="A40" s="12">
         <v>38</v>
       </c>
@@ -4626,27 +4609,25 @@
         <v>52</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H40" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="I40" s="55" t="s">
-        <v>178</v>
-      </c>
+      <c r="I40" s="55"/>
       <c r="L40" s="12" t="s">
         <v>85</v>
       </c>
       <c r="M40" s="57"/>
       <c r="N40" s="57"/>
-      <c r="O40" s="56">
-        <v>42694</v>
+      <c r="O40" s="54">
+        <v>42724</v>
       </c>
       <c r="P40" s="55" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="18" customFormat="1" ht="27">
+    <row r="41" spans="1:19" s="18" customFormat="1" ht="27" hidden="1">
       <c r="A41" s="12">
         <v>39</v>
       </c>
@@ -4666,25 +4647,24 @@
         <v>52</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H41" s="52" t="s">
         <v>55</v>
       </c>
       <c r="I41" s="55"/>
       <c r="L41" s="51" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M41" s="57"/>
-      <c r="N41" s="104">
+      <c r="O41" s="104">
         <v>42720</v>
       </c>
-      <c r="O41" s="56"/>
       <c r="P41" s="55" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="18" customFormat="1" ht="108">
+    <row r="42" spans="1:19" s="18" customFormat="1" ht="81">
       <c r="A42" s="12">
         <v>40</v>
       </c>
@@ -4704,24 +4684,16 @@
         <v>152</v>
       </c>
       <c r="G42" s="43" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H42" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="I42" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="L42" s="51" t="s">
-        <v>86</v>
-      </c>
+      <c r="I42" s="55"/>
+      <c r="L42" s="51"/>
       <c r="M42" s="57"/>
-      <c r="N42" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="O42" s="56">
-        <v>42691</v>
-      </c>
+      <c r="N42" s="57"/>
+      <c r="O42" s="56"/>
       <c r="P42" s="55" t="s">
         <v>157</v>
       </c>
@@ -4746,13 +4718,13 @@
         <v>57</v>
       </c>
       <c r="G43" s="49" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H43" s="61" t="s">
         <v>55</v>
       </c>
       <c r="I43" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K43" s="60">
         <v>42695</v>
@@ -4791,13 +4763,13 @@
         <v>57</v>
       </c>
       <c r="G44" s="49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H44" s="61" t="s">
         <v>55</v>
       </c>
       <c r="I44" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K44" s="60">
         <v>42695</v>
@@ -4836,13 +4808,13 @@
         <v>151</v>
       </c>
       <c r="G45" s="49" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H45" s="61" t="s">
         <v>55</v>
       </c>
       <c r="I45" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K45" s="60">
         <v>42695</v>
@@ -4917,14 +4889,14 @@
         <v>42641</v>
       </c>
       <c r="F47" s="64" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G47" s="49" t="s">
         <v>122</v>
       </c>
       <c r="H47" s="61"/>
       <c r="I47" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K47" s="60">
         <v>42695</v>
@@ -4958,16 +4930,16 @@
         <v>42641</v>
       </c>
       <c r="F48" s="64" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G48" s="50" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H48" s="61" t="s">
         <v>55</v>
       </c>
       <c r="I48" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K48" s="60">
         <v>42695</v>
@@ -5067,7 +5039,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="94.5">
+    <row r="51" spans="1:16" ht="94.5" hidden="1">
       <c r="A51" s="12">
         <v>49</v>
       </c>
@@ -5087,7 +5059,7 @@
         <v>88</v>
       </c>
       <c r="G51" s="65" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H51" s="52" t="s">
         <v>41</v>
@@ -5107,7 +5079,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="27">
+    <row r="52" spans="1:16" ht="27" hidden="1">
       <c r="A52" s="12">
         <v>50</v>
       </c>
@@ -5127,7 +5099,7 @@
         <v>88</v>
       </c>
       <c r="G52" s="65" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H52" s="52" t="s">
         <v>41</v>
@@ -5184,7 +5156,7 @@
       <c r="O53" s="60"/>
       <c r="P53" s="59"/>
     </row>
-    <row r="54" spans="1:16" ht="27">
+    <row r="54" spans="1:16" ht="27" hidden="1">
       <c r="A54" s="12">
         <v>52</v>
       </c>
@@ -5204,14 +5176,12 @@
         <v>88</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H54" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="I54" s="51" t="s">
-        <v>211</v>
-      </c>
+      <c r="I54" s="51"/>
       <c r="L54" s="12" t="s">
         <v>85</v>
       </c>
@@ -5220,7 +5190,7 @@
         <v>169</v>
       </c>
       <c r="O54" s="54">
-        <v>42694</v>
+        <v>42724</v>
       </c>
       <c r="P54" s="51" t="s">
         <v>157</v>
@@ -5246,13 +5216,13 @@
         <v>95</v>
       </c>
       <c r="G55" s="49" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H55" s="61" t="s">
         <v>55</v>
       </c>
       <c r="I55" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K55" s="60">
         <v>42695</v>
@@ -5269,7 +5239,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="40.5">
+    <row r="56" spans="1:16" ht="40.5" hidden="1">
       <c r="A56" s="12">
         <v>54</v>
       </c>
@@ -5289,13 +5259,13 @@
         <v>95</v>
       </c>
       <c r="G56" s="65" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H56" s="52" t="s">
         <v>41</v>
       </c>
       <c r="I56" s="51" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L56" s="51" t="s">
         <v>86</v>
@@ -5430,10 +5400,10 @@
         <v>42698</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G60" s="66" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H60" s="52" t="s">
         <v>41</v>
@@ -5456,10 +5426,10 @@
         <v>42698</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G61" s="66" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H61" s="52" t="s">
         <v>41</v>
@@ -5482,10 +5452,10 @@
         <v>42698</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G62" s="99" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H62" s="52" t="s">
         <v>41</v>
@@ -5508,10 +5478,10 @@
         <v>42698</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G63" s="100" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H63" s="52" t="s">
         <v>41</v>
@@ -5534,10 +5504,10 @@
         <v>42698</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G64" s="100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H64" s="52" t="s">
         <v>41</v>
@@ -5560,16 +5530,16 @@
         <v>42698</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G65" s="99" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H65" s="52" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="27">
+    <row r="66" spans="1:16" ht="27" hidden="1">
       <c r="A66" s="12">
         <v>64</v>
       </c>
@@ -5586,10 +5556,10 @@
         <v>42698</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G66" s="100" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H66" s="52" t="s">
         <v>41</v>
@@ -5601,10 +5571,10 @@
         <v>42724</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="27">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="27" hidden="1">
       <c r="A67" s="12">
         <v>65</v>
       </c>
@@ -5621,10 +5591,10 @@
         <v>42698</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G67" s="66" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L67" s="12" t="s">
         <v>85</v>
@@ -5633,10 +5603,10 @@
         <v>42724</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="81">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="81" hidden="1">
       <c r="A68" s="12">
         <v>66</v>
       </c>
@@ -5653,25 +5623,25 @@
         <v>42698</v>
       </c>
       <c r="F68" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G68" s="101" t="s">
         <v>198</v>
-      </c>
-      <c r="G68" s="101" t="s">
-        <v>201</v>
       </c>
       <c r="L68" s="12" t="s">
         <v>85</v>
       </c>
       <c r="N68" s="13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O68" s="54">
         <v>42724</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="27">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="27" hidden="1">
       <c r="A69" s="12">
         <v>67</v>
       </c>
@@ -5688,22 +5658,22 @@
         <v>42698</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G69" s="66" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O69" s="54">
         <v>42724</v>
       </c>
       <c r="P69" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="40.5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="40.5" hidden="1">
       <c r="A70" s="12">
         <v>68</v>
       </c>
@@ -5723,22 +5693,22 @@
         <v>88</v>
       </c>
       <c r="G70" s="66" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H70" s="52" t="s">
         <v>41</v>
       </c>
       <c r="L70" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="N70" s="105" t="s">
         <v>221</v>
-      </c>
-      <c r="N70" s="105" t="s">
-        <v>224</v>
       </c>
       <c r="O70" s="54">
         <v>42724</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -5748,16 +5718,19 @@
         <filter val="返回"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="11">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_daisy_161211.xlsx
+++ b/测试单-电子书_daisy_161211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="224">
   <si>
     <t>编号</t>
   </si>
@@ -1442,6 +1442,9 @@
   <si>
     <t>改成和TXT一样，返回时只播放当前页码，不自动播放。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用方案二修改。</t>
   </si>
 </sst>
 </file>
@@ -3040,7 +3043,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N54" sqref="N54"/>
+      <selection pane="bottomRight" activeCell="L42" sqref="L42:O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4690,10 +4693,16 @@
         <v>55</v>
       </c>
       <c r="I42" s="55"/>
-      <c r="L42" s="51"/>
+      <c r="L42" s="51" t="s">
+        <v>85</v>
+      </c>
       <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="56"/>
+      <c r="N42" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="O42" s="56">
+        <v>42724</v>
+      </c>
       <c r="P42" s="55" t="s">
         <v>157</v>
       </c>

--- a/测试单-电子书_daisy_161211.xlsx
+++ b/测试单-电子书_daisy_161211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="225">
   <si>
     <t>编号</t>
   </si>
@@ -1444,7 +1444,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>同40，采用方案二修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>采用方案二修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2394,7 +2399,17 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3043,7 +3058,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L42" sqref="L42:O42"/>
+      <selection pane="bottomRight" activeCell="N61" sqref="N61:O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4667,7 +4682,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="18" customFormat="1" ht="81">
+    <row r="42" spans="1:19" s="18" customFormat="1" ht="81" hidden="1">
       <c r="A42" s="12">
         <v>40</v>
       </c>
@@ -4697,10 +4712,10 @@
         <v>85</v>
       </c>
       <c r="M42" s="57"/>
-      <c r="N42" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="O42" s="56">
+      <c r="N42" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="O42" s="54">
         <v>42724</v>
       </c>
       <c r="P42" s="55" t="s">
@@ -5392,7 +5407,7 @@
       <c r="N59" s="86"/>
       <c r="O59" s="88"/>
     </row>
-    <row r="60" spans="1:16" ht="40.5">
+    <row r="60" spans="1:16" ht="40.5" hidden="1">
       <c r="A60" s="12">
         <v>58</v>
       </c>
@@ -5417,8 +5432,17 @@
       <c r="H60" s="52" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" ht="40.5">
+      <c r="L60" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="N60" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="O60" s="54">
+        <v>42724</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="40.5" hidden="1">
       <c r="A61" s="12">
         <v>59</v>
       </c>
@@ -5442,6 +5466,15 @@
       </c>
       <c r="H61" s="52" t="s">
         <v>41</v>
+      </c>
+      <c r="L61" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="N61" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="O61" s="54">
+        <v>42724</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -5723,7 +5756,8 @@
   </sheetData>
   <autoFilter ref="A2:P70">
     <filterColumn colId="8">
-      <filters>
+      <filters blank="1">
+        <filter val="待测试"/>
         <filter val="返回"/>
       </filters>
     </filterColumn>
@@ -5734,17 +5768,17 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L51:L57 L18:L49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L51:L57 L18:L49 L60:L61">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>
